--- a/Pietu-klubas-sprintas.xlsx
+++ b/Pietu-klubas-sprintas.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D237209-8A84-496B-BCFE-E3860625BC4F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD5EEA3-A8B5-4992-8FFD-48B023B06F9A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,23 +20,12 @@
     <definedName name="vertex42_id" hidden="1">"gantt-chart_L2.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
-  <si>
-    <t>Red</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Green</t>
   </si>
@@ -1391,13 +1380,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>204258</xdr:colOff>
+      <xdr:colOff>136525</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>194733</xdr:colOff>
+      <xdr:colOff>127000</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3060,8 +3049,8 @@
   </sheetPr>
   <dimension ref="B1:BY44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3070,8 +3059,8 @@
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="3" customWidth="1"/>
@@ -3128,7 +3117,7 @@
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="72"/>
       <c r="E3" s="72"/>
@@ -3139,7 +3128,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="55"/>
       <c r="L3" s="56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -3148,7 +3137,7 @@
       <c r="Q3" s="7"/>
       <c r="R3" s="57"/>
       <c r="S3" s="56" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
@@ -3278,21 +3267,21 @@
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="60" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="73">
         <v>43742</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="76"/>
       <c r="H6" s="45">
         <v>1</v>
       </c>
       <c r="I6" s="58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="32"/>
       <c r="K6" s="75"/>
@@ -3372,25 +3361,25 @@
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="E8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="F8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="G8" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="H8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="44" t="s">
-        <v>10</v>
-      </c>
       <c r="I8" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="25"/>
       <c r="K8" s="31">
@@ -3650,7 +3639,7 @@
     <row r="10" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="39">
@@ -3659,16 +3648,16 @@
       </c>
       <c r="F10" s="39">
         <f>IF(MAX(F11:F21)&gt;0,MAX(F11:F21),"")</f>
-        <v>43752</v>
+        <v>43810</v>
       </c>
       <c r="G10" s="50" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " dienos(-ų)")</f>
-        <v>1 dienos(-ų)</v>
+        <v>43 dienos(-ų)</v>
       </c>
       <c r="H10" s="46"/>
       <c r="I10" s="51">
         <f>AVERAGE(I12:I21)</f>
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="35"/>
@@ -3706,7 +3695,7 @@
     <row r="11" spans="2:41" ht="16.8" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="30"/>
       <c r="E11" s="33">
@@ -3759,10 +3748,10 @@
     <row r="12" spans="2:41" ht="26.4" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="12">
         <v>43751</v>
@@ -3775,7 +3764,7 @@
         <v>1 dienos(-ų)</v>
       </c>
       <c r="H12" s="49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="53">
         <v>1</v>
@@ -3816,10 +3805,10 @@
     <row r="13" spans="2:41" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="12">
         <v>43751</v>
@@ -3832,7 +3821,7 @@
         <v>1 dienos(-ų)</v>
       </c>
       <c r="H13" s="49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="53">
         <v>1</v>
@@ -3873,20 +3862,20 @@
     <row r="14" spans="2:41" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="33">
         <f>IF(MIN(E15:E18)&gt;0,MIN(E15:E18),"")</f>
-        <v>43752</v>
+        <v>43807</v>
       </c>
       <c r="F14" s="33">
         <f>IF(MAX(F15:F18)&gt;0,MAX(F15:F18),"")</f>
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="G14" s="47" t="str">
         <f>IF(OR(E14="",F14=""),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
+        <v>2 day(s)</v>
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="52"/>
@@ -3926,26 +3915,26 @@
     <row r="15" spans="2:41" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" s="12">
-        <v>43752</v>
+        <v>43807</v>
       </c>
       <c r="F15" s="12">
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="G15" s="48" t="str">
         <f>IF(OR(E15=0,F15=0),"",NETWORKDAYS(E15,F15)&amp; " dienos(-ų)")</f>
-        <v>1 dienos(-ų)</v>
+        <v>2 dienos(-ų)</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>0</v>
       </c>
       <c r="I15" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="26"/>
       <c r="K15" s="34"/>
@@ -3983,26 +3972,26 @@
     <row r="16" spans="2:41" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="12">
-        <v>43752</v>
+        <v>43807</v>
       </c>
       <c r="F16" s="12">
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="G16" s="48" t="str">
         <f t="shared" ref="G16:G17" si="16">IF(OR(E16=0,F16=0),"",NETWORKDAYS(E16,F16)&amp; " dienos(-ų)")</f>
-        <v>1 dienos(-ų)</v>
+        <v>2 dienos(-ų)</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>0</v>
       </c>
       <c r="I16" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="15"/>
@@ -4040,26 +4029,26 @@
     <row r="17" spans="2:77" ht="39.6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" s="12">
-        <v>43752</v>
+        <v>43807</v>
       </c>
       <c r="F17" s="12">
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="G17" s="48" t="str">
         <f t="shared" si="16"/>
-        <v>1 dienos(-ų)</v>
+        <v>2 dienos(-ų)</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>0</v>
       </c>
       <c r="I17" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="15"/>
@@ -4139,20 +4128,20 @@
     <row r="19" spans="2:77" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="30"/>
       <c r="E19" s="33">
         <f>IF(MIN(E20:E21)&gt;0,MIN(E20:E21),"")</f>
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="F19" s="33">
         <f>IF(MAX(F20:F21)&gt;0,MAX(F20:F21),"")</f>
-        <v>43752</v>
+        <v>43810</v>
       </c>
       <c r="G19" s="47" t="str">
         <f>IF(OR(E19="",F19=""),"",NETWORKDAYS(E19,F19)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
+        <v>2 day(s)</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="52"/>
@@ -4192,26 +4181,26 @@
     <row r="20" spans="2:77" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="12">
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="F20" s="12">
-        <v>43752</v>
+        <v>43810</v>
       </c>
       <c r="G20" s="48" t="str">
         <f>IF(OR(E20=0,F20=0),"",NETWORKDAYS(E20,F20)&amp; " dienos(-ų)")</f>
-        <v>1 dienos(-ų)</v>
+        <v>2 dienos(-ų)</v>
       </c>
       <c r="H20" s="49" t="s">
         <v>0</v>
       </c>
       <c r="I20" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="26"/>
       <c r="K20" s="34"/>
@@ -4249,26 +4238,26 @@
     <row r="21" spans="2:77" ht="26.4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="12">
-        <v>43752</v>
+        <v>43809</v>
       </c>
       <c r="F21" s="12">
-        <v>43752</v>
+        <v>43810</v>
       </c>
       <c r="G21" s="48" t="str">
         <f t="shared" ref="G21" si="17">IF(OR(E21=0,F21=0),"",NETWORKDAYS(E21,F21)&amp; " dienos(-ų)")</f>
-        <v>1 dienos(-ų)</v>
+        <v>2 dienos(-ų)</v>
       </c>
       <c r="H21" s="49" t="s">
         <v>0</v>
       </c>
       <c r="I21" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="15"/>
@@ -5189,7 +5178,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H17 H20:H21 H12:H13" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H13 H15:H17 H20:H21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D13 D15:D17 D20:D21" xr:uid="{00000000-0002-0000-0000-000001000000}">
